--- a/data/raw/election/voters-age-sex-education/2023/Kars.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kars.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:46:27-15413159461" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="37">
   <si>
     <t>Kars</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Susuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -678,10 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,10 +1020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,20 +1043,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,17 +2090,17 @@
       <c r="D30" s="5">
         <v>320</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.885</v>
+      <c r="E30" s="7">
+        <v>1885</v>
       </c>
       <c r="F30" s="5">
         <v>810</v>
       </c>
-      <c r="G30" s="5">
-        <v>1.498</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1.4910000000000001</v>
+      <c r="G30" s="7">
+        <v>1498</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1491</v>
       </c>
       <c r="I30" s="5">
         <v>631</v>
@@ -2100,8 +2114,8 @@
       <c r="L30" s="5">
         <v>93</v>
       </c>
-      <c r="M30" s="5">
-        <v>7.2359999999999998</v>
+      <c r="M30" s="7">
+        <v>7236</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3114,20 +3128,20 @@
       <c r="D56" s="5">
         <v>671</v>
       </c>
-      <c r="E56" s="5">
-        <v>3.1389999999999998</v>
+      <c r="E56" s="7">
+        <v>3139</v>
       </c>
       <c r="F56" s="5">
         <v>935</v>
       </c>
-      <c r="G56" s="5">
-        <v>2.0070000000000001</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1.016</v>
+      <c r="G56" s="7">
+        <v>2007</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2215</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1016</v>
       </c>
       <c r="J56" s="5">
         <v>67</v>
@@ -3138,8 +3152,8 @@
       <c r="L56" s="5">
         <v>289</v>
       </c>
-      <c r="M56" s="5">
-        <v>11.206</v>
+      <c r="M56" s="7">
+        <v>11206</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3218,8 +3232,8 @@
       <c r="L58" s="4">
         <v>20</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.4590000000000001</v>
+      <c r="M58" s="7">
+        <v>1459</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3257,8 +3271,8 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.3160000000000001</v>
+      <c r="M59" s="7">
+        <v>1316</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4146,23 +4160,23 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>3.2829999999999999</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.327</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2.931</v>
-      </c>
-      <c r="H82" s="5">
-        <v>2.0880000000000001</v>
+      <c r="C82" s="7">
+        <v>1277</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1061</v>
+      </c>
+      <c r="E82" s="7">
+        <v>3283</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1327</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2931</v>
+      </c>
+      <c r="H82" s="7">
+        <v>2088</v>
       </c>
       <c r="I82" s="5">
         <v>847</v>
@@ -4176,8 +4190,8 @@
       <c r="L82" s="5">
         <v>196</v>
       </c>
-      <c r="M82" s="5">
-        <v>13.087</v>
+      <c r="M82" s="7">
+        <v>13087</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4238,11 +4252,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.4810000000000001</v>
-      </c>
-      <c r="H84" s="4">
-        <v>1.1619999999999999</v>
+      <c r="G84" s="9">
+        <v>1481</v>
+      </c>
+      <c r="H84" s="9">
+        <v>1162</v>
       </c>
       <c r="I84" s="4">
         <v>182</v>
@@ -4256,8 +4270,8 @@
       <c r="L84" s="4">
         <v>25</v>
       </c>
-      <c r="M84" s="5">
-        <v>2.944</v>
+      <c r="M84" s="7">
+        <v>2944</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4277,11 +4291,11 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.167</v>
-      </c>
-      <c r="H85" s="4">
-        <v>1.272</v>
+      <c r="G85" s="9">
+        <v>1167</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1272</v>
       </c>
       <c r="I85" s="4">
         <v>397</v>
@@ -4295,8 +4309,8 @@
       <c r="L85" s="4">
         <v>6</v>
       </c>
-      <c r="M85" s="5">
-        <v>3</v>
+      <c r="M85" s="7">
+        <v>3000</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4336,8 +4350,8 @@
       <c r="L86" s="4">
         <v>10</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.798</v>
+      <c r="M86" s="7">
+        <v>1798</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4375,8 +4389,8 @@
       <c r="L87" s="4">
         <v>12</v>
       </c>
-      <c r="M87" s="5">
-        <v>1.889</v>
+      <c r="M87" s="7">
+        <v>1889</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,8 +4430,8 @@
       <c r="L88" s="4">
         <v>26</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.7529999999999999</v>
+      <c r="M88" s="7">
+        <v>1753</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4455,8 +4469,8 @@
       <c r="L89" s="4">
         <v>29</v>
       </c>
-      <c r="M89" s="5">
-        <v>1.4590000000000001</v>
+      <c r="M89" s="7">
+        <v>1459</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4496,8 +4510,8 @@
       <c r="L90" s="4">
         <v>33</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.3149999999999999</v>
+      <c r="M90" s="7">
+        <v>1315</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4535,8 +4549,8 @@
       <c r="L91" s="4">
         <v>16</v>
       </c>
-      <c r="M91" s="5">
-        <v>1.1579999999999999</v>
+      <c r="M91" s="7">
+        <v>1158</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4576,8 +4590,8 @@
       <c r="L92" s="4">
         <v>21</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.36</v>
+      <c r="M92" s="7">
+        <v>1360</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4615,8 +4629,8 @@
       <c r="L93" s="4">
         <v>11</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.3240000000000001</v>
+      <c r="M93" s="7">
+        <v>1324</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4656,8 +4670,8 @@
       <c r="L94" s="4">
         <v>12</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.18</v>
+      <c r="M94" s="7">
+        <v>1180</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4695,8 +4709,8 @@
       <c r="L95" s="4">
         <v>18</v>
       </c>
-      <c r="M95" s="5">
-        <v>1.083</v>
+      <c r="M95" s="7">
+        <v>1083</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -5184,26 +5198,26 @@
         <v>12</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>2.1459999999999999</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="E108" s="5">
-        <v>6.0490000000000004</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.948</v>
-      </c>
-      <c r="G108" s="5">
-        <v>6.4059999999999997</v>
-      </c>
-      <c r="H108" s="5">
-        <v>6.2729999999999997</v>
-      </c>
-      <c r="I108" s="5">
-        <v>3.1869999999999998</v>
+      <c r="C108" s="7">
+        <v>2146</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1662</v>
+      </c>
+      <c r="E108" s="7">
+        <v>6049</v>
+      </c>
+      <c r="F108" s="7">
+        <v>2948</v>
+      </c>
+      <c r="G108" s="7">
+        <v>6406</v>
+      </c>
+      <c r="H108" s="7">
+        <v>6273</v>
+      </c>
+      <c r="I108" s="7">
+        <v>3187</v>
       </c>
       <c r="J108" s="5">
         <v>310</v>
@@ -5214,8 +5228,8 @@
       <c r="L108" s="5">
         <v>349</v>
       </c>
-      <c r="M108" s="5">
-        <v>29.353999999999999</v>
+      <c r="M108" s="7">
+        <v>29354</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5276,11 +5290,11 @@
       <c r="F110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="H110" s="4">
-        <v>3.4380000000000002</v>
+      <c r="G110" s="9">
+        <v>1836</v>
+      </c>
+      <c r="H110" s="9">
+        <v>3438</v>
       </c>
       <c r="I110" s="4">
         <v>758</v>
@@ -5294,8 +5308,8 @@
       <c r="L110" s="4">
         <v>44</v>
       </c>
-      <c r="M110" s="5">
-        <v>6.165</v>
+      <c r="M110" s="7">
+        <v>6165</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5315,14 +5329,14 @@
       <c r="F111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.333</v>
-      </c>
-      <c r="H111" s="4">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.274</v>
+      <c r="G111" s="9">
+        <v>1333</v>
+      </c>
+      <c r="H111" s="9">
+        <v>3591</v>
+      </c>
+      <c r="I111" s="9">
+        <v>1274</v>
       </c>
       <c r="J111" s="4">
         <v>19</v>
@@ -5333,8 +5347,8 @@
       <c r="L111" s="4">
         <v>11</v>
       </c>
-      <c r="M111" s="5">
-        <v>6.2939999999999996</v>
+      <c r="M111" s="7">
+        <v>6294</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5356,14 +5370,14 @@
       <c r="F112" s="4">
         <v>75</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1.944</v>
+      <c r="G112" s="9">
+        <v>1043</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1362</v>
+      </c>
+      <c r="I112" s="9">
+        <v>1944</v>
       </c>
       <c r="J112" s="4">
         <v>202</v>
@@ -5374,8 +5388,8 @@
       <c r="L112" s="4">
         <v>25</v>
       </c>
-      <c r="M112" s="5">
-        <v>4.7370000000000001</v>
+      <c r="M112" s="7">
+        <v>4737</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5401,8 +5415,8 @@
       <c r="H113" s="4">
         <v>857</v>
       </c>
-      <c r="I113" s="4">
-        <v>2.6890000000000001</v>
+      <c r="I113" s="9">
+        <v>2689</v>
       </c>
       <c r="J113" s="4">
         <v>303</v>
@@ -5413,8 +5427,8 @@
       <c r="L113" s="4">
         <v>28</v>
       </c>
-      <c r="M113" s="5">
-        <v>5.1920000000000002</v>
+      <c r="M113" s="7">
+        <v>5192</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5439,11 +5453,11 @@
       <c r="G114" s="4">
         <v>415</v>
       </c>
-      <c r="H114" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1.7969999999999999</v>
+      <c r="H114" s="9">
+        <v>1080</v>
+      </c>
+      <c r="I114" s="9">
+        <v>1797</v>
       </c>
       <c r="J114" s="4">
         <v>357</v>
@@ -5454,8 +5468,8 @@
       <c r="L114" s="4">
         <v>26</v>
       </c>
-      <c r="M114" s="5">
-        <v>4.5369999999999999</v>
+      <c r="M114" s="7">
+        <v>4537</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5481,8 +5495,8 @@
       <c r="H115" s="4">
         <v>835</v>
       </c>
-      <c r="I115" s="4">
-        <v>1.784</v>
+      <c r="I115" s="9">
+        <v>1784</v>
       </c>
       <c r="J115" s="4">
         <v>338</v>
@@ -5493,8 +5507,8 @@
       <c r="L115" s="4">
         <v>36</v>
       </c>
-      <c r="M115" s="5">
-        <v>4.6719999999999997</v>
+      <c r="M115" s="7">
+        <v>4672</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5519,11 +5533,11 @@
       <c r="G116" s="4">
         <v>334</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.2529999999999999</v>
+      <c r="H116" s="9">
+        <v>1098</v>
+      </c>
+      <c r="I116" s="9">
+        <v>1253</v>
       </c>
       <c r="J116" s="4">
         <v>256</v>
@@ -5534,8 +5548,8 @@
       <c r="L116" s="4">
         <v>36</v>
       </c>
-      <c r="M116" s="5">
-        <v>4.1059999999999999</v>
+      <c r="M116" s="7">
+        <v>4106</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5573,8 +5587,8 @@
       <c r="L117" s="4">
         <v>29</v>
       </c>
-      <c r="M117" s="5">
-        <v>3.8439999999999999</v>
+      <c r="M117" s="7">
+        <v>3844</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5599,8 +5613,8 @@
       <c r="G118" s="4">
         <v>612</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.2410000000000001</v>
+      <c r="H118" s="9">
+        <v>1241</v>
       </c>
       <c r="I118" s="4">
         <v>850</v>
@@ -5614,8 +5628,8 @@
       <c r="L118" s="4">
         <v>23</v>
       </c>
-      <c r="M118" s="5">
-        <v>3.94</v>
+      <c r="M118" s="7">
+        <v>3940</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5629,8 +5643,8 @@
       <c r="D119" s="4">
         <v>86</v>
       </c>
-      <c r="E119" s="4">
-        <v>1.1100000000000001</v>
+      <c r="E119" s="9">
+        <v>1110</v>
       </c>
       <c r="F119" s="4">
         <v>366</v>
@@ -5653,8 +5667,8 @@
       <c r="L119" s="4">
         <v>32</v>
       </c>
-      <c r="M119" s="5">
-        <v>3.931</v>
+      <c r="M119" s="7">
+        <v>3931</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5679,8 +5693,8 @@
       <c r="G120" s="4">
         <v>515</v>
       </c>
-      <c r="H120" s="4">
-        <v>1.1759999999999999</v>
+      <c r="H120" s="9">
+        <v>1176</v>
       </c>
       <c r="I120" s="4">
         <v>632</v>
@@ -5694,8 +5708,8 @@
       <c r="L120" s="4">
         <v>21</v>
       </c>
-      <c r="M120" s="5">
-        <v>3.5259999999999998</v>
+      <c r="M120" s="7">
+        <v>3526</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5733,8 +5747,8 @@
       <c r="L121" s="4">
         <v>19</v>
       </c>
-      <c r="M121" s="5">
-        <v>3.1309999999999998</v>
+      <c r="M121" s="7">
+        <v>3131</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5774,8 +5788,8 @@
       <c r="L122" s="4">
         <v>16</v>
       </c>
-      <c r="M122" s="5">
-        <v>3.0209999999999999</v>
+      <c r="M122" s="7">
+        <v>3021</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5813,8 +5827,8 @@
       <c r="L123" s="4">
         <v>28</v>
       </c>
-      <c r="M123" s="5">
-        <v>2.5739999999999998</v>
+      <c r="M123" s="7">
+        <v>2574</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5854,8 +5868,8 @@
       <c r="L124" s="4">
         <v>20</v>
       </c>
-      <c r="M124" s="5">
-        <v>2.5790000000000002</v>
+      <c r="M124" s="7">
+        <v>2579</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5893,8 +5907,8 @@
       <c r="L125" s="4">
         <v>35</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.4020000000000001</v>
+      <c r="M125" s="7">
+        <v>2402</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5934,8 +5948,8 @@
       <c r="L126" s="4">
         <v>15</v>
       </c>
-      <c r="M126" s="5">
-        <v>2.141</v>
+      <c r="M126" s="7">
+        <v>2141</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5973,8 +5987,8 @@
       <c r="L127" s="4">
         <v>37</v>
       </c>
-      <c r="M127" s="5">
-        <v>2.06</v>
+      <c r="M127" s="7">
+        <v>2060</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6014,8 +6028,8 @@
       <c r="L128" s="4">
         <v>22</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.663</v>
+      <c r="M128" s="7">
+        <v>1663</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6053,8 +6067,8 @@
       <c r="L129" s="4">
         <v>29</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.673</v>
+      <c r="M129" s="7">
+        <v>1673</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6094,8 +6108,8 @@
       <c r="L130" s="4">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.1839999999999999</v>
+      <c r="M130" s="7">
+        <v>1184</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6133,8 +6147,8 @@
       <c r="L131" s="4">
         <v>30</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.2669999999999999</v>
+      <c r="M131" s="7">
+        <v>1267</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6174,8 +6188,8 @@
       <c r="L132" s="4">
         <v>45</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.4930000000000001</v>
+      <c r="M132" s="7">
+        <v>1493</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6183,8 +6197,8 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.0669999999999999</v>
+      <c r="C133" s="9">
+        <v>1067</v>
       </c>
       <c r="D133" s="4">
         <v>315</v>
@@ -6213,8 +6227,8 @@
       <c r="L133" s="4">
         <v>52</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.91</v>
+      <c r="M133" s="7">
+        <v>1910</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6222,29 +6236,29 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>3.2890000000000001</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2.258</v>
-      </c>
-      <c r="E134" s="5">
-        <v>11.558999999999999</v>
-      </c>
-      <c r="F134" s="5">
-        <v>6.7709999999999999</v>
-      </c>
-      <c r="G134" s="5">
-        <v>11.954000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>22.015999999999998</v>
-      </c>
-      <c r="I134" s="5">
-        <v>16.658999999999999</v>
-      </c>
-      <c r="J134" s="5">
-        <v>2.2250000000000001</v>
+      <c r="C134" s="7">
+        <v>3289</v>
+      </c>
+      <c r="D134" s="7">
+        <v>2258</v>
+      </c>
+      <c r="E134" s="7">
+        <v>11559</v>
+      </c>
+      <c r="F134" s="7">
+        <v>6771</v>
+      </c>
+      <c r="G134" s="7">
+        <v>11954</v>
+      </c>
+      <c r="H134" s="7">
+        <v>22016</v>
+      </c>
+      <c r="I134" s="7">
+        <v>16659</v>
+      </c>
+      <c r="J134" s="7">
+        <v>2225</v>
       </c>
       <c r="K134" s="5">
         <v>637</v>
@@ -6252,8 +6266,8 @@
       <c r="L134" s="5">
         <v>674</v>
       </c>
-      <c r="M134" s="5">
-        <v>78.042000000000002</v>
+      <c r="M134" s="7">
+        <v>78042</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6314,11 +6328,11 @@
       <c r="F136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="H136" s="4">
-        <v>1.0129999999999999</v>
+      <c r="G136" s="9">
+        <v>1074</v>
+      </c>
+      <c r="H136" s="9">
+        <v>1013</v>
       </c>
       <c r="I136" s="4">
         <v>237</v>
@@ -6332,8 +6346,8 @@
       <c r="L136" s="4">
         <v>14</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.3980000000000001</v>
+      <c r="M136" s="7">
+        <v>2398</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6371,8 +6385,8 @@
       <c r="L137" s="4">
         <v>8</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.3359999999999999</v>
+      <c r="M137" s="7">
+        <v>2336</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6412,8 +6426,8 @@
       <c r="L138" s="4">
         <v>9</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.712</v>
+      <c r="M138" s="7">
+        <v>1712</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6451,8 +6465,8 @@
       <c r="L139" s="4">
         <v>17</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.536</v>
+      <c r="M139" s="7">
+        <v>1536</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6492,8 +6506,8 @@
       <c r="L140" s="4">
         <v>29</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.381</v>
+      <c r="M140" s="7">
+        <v>1381</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6531,8 +6545,8 @@
       <c r="L141" s="4">
         <v>22</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.2110000000000001</v>
+      <c r="M141" s="7">
+        <v>1211</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6572,8 +6586,8 @@
       <c r="L142" s="4">
         <v>33</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.1890000000000001</v>
+      <c r="M142" s="7">
+        <v>1189</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6652,8 +6666,8 @@
       <c r="L144" s="4">
         <v>29</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.1439999999999999</v>
+      <c r="M144" s="7">
+        <v>1144</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6691,8 +6705,8 @@
       <c r="L145" s="4">
         <v>20</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.0649999999999999</v>
+      <c r="M145" s="7">
+        <v>1065</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -7260,26 +7274,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>2.0259999999999998</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>5.3849999999999998</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>4.891</v>
-      </c>
-      <c r="H160" s="5">
-        <v>5.2779999999999996</v>
-      </c>
-      <c r="I160" s="5">
-        <v>3.07</v>
+      <c r="C160" s="7">
+        <v>2026</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1412</v>
+      </c>
+      <c r="E160" s="7">
+        <v>5385</v>
+      </c>
+      <c r="F160" s="7">
+        <v>2072</v>
+      </c>
+      <c r="G160" s="7">
+        <v>4891</v>
+      </c>
+      <c r="H160" s="7">
+        <v>5278</v>
+      </c>
+      <c r="I160" s="7">
+        <v>3070</v>
       </c>
       <c r="J160" s="5">
         <v>289</v>
@@ -7290,8 +7304,8 @@
       <c r="L160" s="5">
         <v>416</v>
       </c>
-      <c r="M160" s="5">
-        <v>24.86</v>
+      <c r="M160" s="7">
+        <v>24860</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7370,8 +7384,8 @@
       <c r="L162" s="4">
         <v>16</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.2450000000000001</v>
+      <c r="M162" s="7">
+        <v>1245</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7409,8 +7423,8 @@
       <c r="L163" s="4">
         <v>1</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.2030000000000001</v>
+      <c r="M163" s="7">
+        <v>1203</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -8304,20 +8318,20 @@
       <c r="D186" s="5">
         <v>654</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.1840000000000002</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.387</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.3180000000000001</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.345</v>
+      <c r="E186" s="7">
+        <v>4184</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1387</v>
+      </c>
+      <c r="G186" s="7">
+        <v>2684</v>
+      </c>
+      <c r="H186" s="7">
+        <v>3318</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1345</v>
       </c>
       <c r="J186" s="5">
         <v>124</v>
@@ -8328,8 +8342,8 @@
       <c r="L186" s="5">
         <v>197</v>
       </c>
-      <c r="M186" s="5">
-        <v>14.685</v>
+      <c r="M186" s="7">
+        <v>14685</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9342,17 +9356,17 @@
       <c r="D212" s="5">
         <v>370</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.772</v>
+      <c r="E212" s="7">
+        <v>1772</v>
       </c>
       <c r="F212" s="5">
         <v>680</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.202</v>
-      </c>
-      <c r="H212" s="5">
-        <v>1.417</v>
+      <c r="G212" s="7">
+        <v>1202</v>
+      </c>
+      <c r="H212" s="7">
+        <v>1417</v>
       </c>
       <c r="I212" s="5">
         <v>526</v>
@@ -9366,8 +9380,18 @@
       <c r="L212" s="5">
         <v>89</v>
       </c>
-      <c r="M212" s="5">
-        <v>6.6180000000000003</v>
+      <c r="M212" s="7">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
